--- a/src/Tests/Templates/Logins.xlsx
+++ b/src/Tests/Templates/Logins.xlsx
@@ -24,55 +24,61 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <x:si>
+    <x:t>Фамилия</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Имя</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отчество</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Логин</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Иванов</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ivanov_s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Иван</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Иванович</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Итог</x:t>
+  </x:si>
+  <x:si>
     <x:t>Дата</x:t>
   </x:si>
   <x:si>
-    <x:t>Итог</x:t>
-  </x:si>
-  <x:si>
     <x:t>Подробности</x:t>
   </x:si>
   <x:si>
-    <x:t>Фамилия</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Имя</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отчество</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Логин</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Иванов</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ivanov_s</x:t>
+    <x:t>Загружен</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>15.05.2023</x:t>
   </x:si>
   <x:si>
     <x:t>Не загружен</x:t>
   </x:si>
   <x:si>
-    <x:t>12.05.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Иван</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Не удалось найти соответствующего сотрудника "Иванов Иван ".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Иванович</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Загружен</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>Количества входных параметров недостаточно. Количество ожидаемых параметров 10. Количество переданных параметров 7.</x:t>
+    <x:t>16.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не удалось найти соответствующего сотрудника "Иванов Иван Иванович".</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17.05.2023</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -460,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:dimension ref="A1:G2"/>
+  <x:dimension ref="A1:T2"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="D2" sqref="D2"/>
+      <x:selection activeCell="S1" sqref="J1:S6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,68 +482,56 @@
     <x:col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <x:row r="1" spans="1:20" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A1" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B1" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C1" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E1" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F1" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K1"/>
+      <x:c r="L1"/>
+      <x:c r="M1"/>
+      <x:c r="R1"/>
+      <x:c r="S1"/>
+      <x:c r="T1"/>
+    </x:row>
+    <x:row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <x:c r="A2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B1" s="4" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C1" s="4" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D1" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E1" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F1" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <x:c r="A2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B2" t="s">
+      <x:c r="D2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C2" t="s">
+      <x:c r="E2" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D2" t="s">
+      <x:c r="F2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G2" t="s">
         <x:v>13</x:v>
-      </x:c>
-      <x:c r="E2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="K2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="L2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="M2" t="s">
-        <x:v>16</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
